--- a/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3593,4 +3594,1504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2261</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0949</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>38.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003319</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003320</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5094,4 +5095,3134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0736</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8495</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6626</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3529</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2982</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>52.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7229</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5463</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5401</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>47.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3750</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3354</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001445</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006424</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1857</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006425</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉合锦程价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>81.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>27.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>70.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>49.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8225,4 +8226,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8234,7 +8235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8245,17 +8246,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8265,14 +8286,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.45</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4315</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8281,14 +8324,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.41</v>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0939</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -8297,14 +8362,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.01</v>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -8313,13 +8400,1289 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3087</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>31.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>47.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8824</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7818</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5983</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1978</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>27.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>81</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>51</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9581,7 +9582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9592,17 +9593,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9612,14 +9633,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.57</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -9628,14 +9671,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>81</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.45</v>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -9644,14 +9709,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.41</v>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -9660,14 +9747,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>29</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.01</v>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -9676,13 +9785,621 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>51.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>29</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>51</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10282,7 +10283,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10293,17 +10294,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10313,14 +10334,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.02</v>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -10329,14 +10372,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.57</v>
+          <t>010751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -10345,14 +10410,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>81</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.45</v>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -10361,14 +10448,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.41</v>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -10377,14 +10486,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>29</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.01</v>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2050</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -10393,13 +10524,1093 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1912</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1566</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010551</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>淳厚欣颐一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010752</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>81</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>29</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>51</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>3.45</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>15.57</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>18.45</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n">
-        <v>4.41</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
-        <v>11.01</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>29</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>51</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.05</v>
       </c>
     </row>
@@ -600,6 +617,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +2320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2493,7 +3020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3839,7 +4366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6969,7 +7496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8469,7 +8996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9627,7 +10154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002080-中材科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.62</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>3.45</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>15.57</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>18.45</v>
+        <v>15.57</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D7" t="n">
-        <v>4.41</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>11.01</v>
+        <v>4.41</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2022 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>51</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>37.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久富核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9749</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>240008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝收益增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006259</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7782</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6908</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6255</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6031</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5779</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1824</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>37.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000976</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通收益增强债券A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006260</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富红利增长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005876</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005877</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达鑫转增利混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>42.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004026</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>融通收益增强债券C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>42.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2626,630 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>017766</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏兴和混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2460</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160311</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519033</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通国策导向混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3539</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001844</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001782</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>九泰久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012419</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012405</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘国证建材指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009912</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰天富改革新动力混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015950</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏蓝筹混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014498</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏兴和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1126,7 +3759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2320,7 +4953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3020,7 +5653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4366,7 +6999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7496,7 +10129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8996,7 +11629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10152,1996 +12785,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010385</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安汇嘉精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>76.18</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>37.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5541</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>162006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城久富核心成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.27</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9749</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>240008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝收益增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7926</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006259</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富红利增长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7782</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519918</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏兴和混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6908</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161017</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证500指数增强(LOF)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>50.69</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6742</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001182</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达安心回馈混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.08</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>39.07</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6255</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003961</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6031</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001166</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信环保产业股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.52</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5779</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003839</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>35.72</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3461</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003882</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>11.28</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2775</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003962</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达瑞程灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2470</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515110</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12.24</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>98.83</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1824</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000866</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华宝高端制造股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1674</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010386</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华安汇嘉精选混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.69</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>37.82</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1569</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>000976</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长城新兴产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>8.59</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1400</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002291</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺安安鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1384</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006013</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1151</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>515990</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>汇添富中证国企一带一路ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>96.96</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0950</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003495</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8.29</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0945</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004142</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0881</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>519975</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>长信量化中小盘股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0858</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004025</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>融通收益增强债券A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0845</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006260</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>汇添富红利增长混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.29</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0773</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001050</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>汇添富成长多因子量化策略股票</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.98</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>004945</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长信中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001537</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>中加改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.15</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0238</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>009140</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>永赢竞争力精选混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>001782</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0132</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>003883</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>易方达瑞弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>35.53</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0128</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005876</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>001844</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>九泰久益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.38</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>003840</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>易方达瑞通灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>35.72</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006014</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>易方达鑫转招利混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>29.72</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>005877</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>易方达鑫转增利混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>000538</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>007943</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>富安达中证 500 指数增强</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>002564</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>新沃通盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.73</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>003496</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>鹏华弘尚灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>26.97</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>98.59</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>003366</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>浙商汇金中证转型成长指数</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>95.23</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>004026</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>融通收益增强债券C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>004143</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>招商盛合灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>84.59</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002053</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>诺安优势行业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>42.85</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>